--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/固定资产合计.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/固定资产合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>36.46477</v>
-      </c>
-      <c r="C2" t="n">
-        <v>57.29353</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.9599</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02017</v>
-      </c>
-      <c r="F2" t="n">
-        <v>16.51014</v>
-      </c>
-      <c r="G2" t="n">
-        <v>79.08121</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5.0015</v>
-      </c>
-      <c r="I2" t="n">
-        <v>28.03198</v>
-      </c>
-      <c r="J2" t="n">
-        <v>12.36206</v>
-      </c>
-      <c r="K2" t="n">
-        <v>56.28366</v>
-      </c>
-      <c r="L2" t="n">
-        <v>21.08302</v>
-      </c>
-      <c r="M2" t="n">
-        <v>10.95148</v>
-      </c>
-      <c r="N2" t="n">
-        <v>70.41676</v>
-      </c>
-      <c r="O2" t="n">
-        <v>42.38722</v>
-      </c>
-      <c r="P2" t="n">
-        <v>7.77105</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>58.10659</v>
-      </c>
-      <c r="R2" t="n">
-        <v>32.29171</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>13.21403</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.2085</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.22503</v>
-      </c>
-      <c r="W2" t="n">
-        <v>8.541169999999999</v>
-      </c>
-      <c r="X2" t="n">
-        <v>21.20649</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>21.71011</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>63.20226</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>24.82584</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>20.71259</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.70402</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1372.3816</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>143.79447</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.34753</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>41.34197</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>73.68163</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>190.02088</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>7.79738</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>37.58642</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>75.74012999999999</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>36.56385</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>44.9615</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>5.97905</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>57.25212</v>
-      </c>
-      <c r="C3" t="n">
-        <v>84.42462999999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.77988</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.12777</v>
-      </c>
-      <c r="F3" t="n">
-        <v>35.22105</v>
-      </c>
-      <c r="G3" t="n">
-        <v>138.91533</v>
-      </c>
-      <c r="H3" t="n">
-        <v>20.11889</v>
-      </c>
-      <c r="I3" t="n">
-        <v>48.74873</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25.42539</v>
-      </c>
-      <c r="K3" t="n">
-        <v>81.69279</v>
-      </c>
-      <c r="L3" t="n">
-        <v>26.74947</v>
-      </c>
-      <c r="M3" t="n">
-        <v>20.62367</v>
-      </c>
-      <c r="N3" t="n">
-        <v>122.09237</v>
-      </c>
-      <c r="O3" t="n">
-        <v>65.89724</v>
-      </c>
-      <c r="P3" t="n">
-        <v>10.5144</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>80.36105999999999</v>
-      </c>
-      <c r="R3" t="n">
-        <v>53.1778</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.00603</v>
-      </c>
-      <c r="T3" t="n">
-        <v>20.8513</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.44064</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.20809</v>
-      </c>
-      <c r="W3" t="n">
-        <v>15.88289</v>
-      </c>
-      <c r="X3" t="n">
-        <v>26.86946</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>36.08644</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>104.02169</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>41.66788</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>30.73558</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.00694</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2236.07892</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>277.86396</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>2.87859</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>77.65765</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>115.46937</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>266.88477</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>11.78833</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>58.82113</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>123.05996</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>50.16723</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>81.88818999999999</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>8.70021</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>82.43778</v>
-      </c>
-      <c r="C4" t="n">
-        <v>123.3605</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.82389</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.28516</v>
-      </c>
-      <c r="F4" t="n">
-        <v>45.83037</v>
-      </c>
-      <c r="G4" t="n">
-        <v>198.37944</v>
-      </c>
-      <c r="H4" t="n">
-        <v>31.4961</v>
-      </c>
-      <c r="I4" t="n">
-        <v>71.08334000000001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.4051</v>
-      </c>
-      <c r="K4" t="n">
-        <v>121.10676</v>
-      </c>
-      <c r="L4" t="n">
-        <v>32.04022</v>
-      </c>
-      <c r="M4" t="n">
-        <v>28.04074</v>
-      </c>
-      <c r="N4" t="n">
-        <v>170.02589</v>
-      </c>
-      <c r="O4" t="n">
-        <v>94.53444</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12.26185</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>105.19423</v>
-      </c>
-      <c r="R4" t="n">
-        <v>66.89619999999999</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>27.72411</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.03387</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3.40175</v>
-      </c>
-      <c r="W4" t="n">
-        <v>31.70073</v>
-      </c>
-      <c r="X4" t="n">
-        <v>31.97573</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>52.70843</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>150.94628</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>54.54519</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>70.36019</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>3247.54807</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>434.2018</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>5.03257</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>107.57432</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>163.33288</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>371.34567</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>20.20245</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>85.27298</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>174.57402</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>60.34357</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>147.39205</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>16.67747</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
